--- a/biology/Médecine/Déhiscence_(médecine)/Déhiscence_(médecine).xlsx
+++ b/biology/Médecine/Déhiscence_(médecine)/Déhiscence_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9hiscence_(m%C3%A9decine)</t>
+          <t>Déhiscence_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La déhiscence est un terme médical signifiant une ouverture ou une rupture anormale, autrement dit une désunion entre deux organes ou tissus, par exemple : déhiscence de la paroi abdominale sur le site d’une cicatrice d’une ancienne intervention abdominale[1], déhiscence d'une prothèse[2], syndrome de déhiscence du canal semi-circulaire supérieur (CSC ou DCSS)[3], etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La déhiscence est un terme médical signifiant une ouverture ou une rupture anormale, autrement dit une désunion entre deux organes ou tissus, par exemple : déhiscence de la paroi abdominale sur le site d’une cicatrice d’une ancienne intervention abdominale, déhiscence d'une prothèse, syndrome de déhiscence du canal semi-circulaire supérieur (CSC ou DCSS), etc.
 La déhiscence peut se soigner à base de sucs extraits de l'arbre à caoutchouc en onguents type pommade. Sur des déhiscences fortes(plaies de l'épiderme béantes), des points de suture dits "grossiers"(en forme de X géants),une aseptisation de ou des plaies puis des cataplasmes à bases de sucs de latex pourraient favorablement contrer la déhiscence d'un point de vue médical au niveau des protocoles de soins.
 </t>
         </is>
